--- a/Commerce Bank/Documentation/Iteration 5 Begins/Iteration 4 Closeout and Iteration 5 Begins.xlsx
+++ b/Commerce Bank/Documentation/Iteration 5 Begins/Iteration 4 Closeout and Iteration 5 Begins.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mariamhabib\Documents\Software Engineering Capstone\Iteration 4 Closeout\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C059DEF6-0F71-41EA-B274-C8A540F5C6F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EFD8460-0B59-4B00-A894-17F8F7DDCA3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="90">
   <si>
     <t>Task Name: (Dependencies top to bottom)</t>
   </si>
@@ -334,13 +334,22 @@
     <t>Develop business logic</t>
   </si>
   <si>
-    <t>Fix HTML and CSS patterns as needed</t>
-  </si>
-  <si>
     <t>Scott, Maryam</t>
   </si>
   <si>
     <t>Irem, Scott</t>
+  </si>
+  <si>
+    <t>Implement django signals to triggers events to notify users</t>
+  </si>
+  <si>
+    <t>Create dashboard UI and Logic</t>
+  </si>
+  <si>
+    <t>Create error pages</t>
+  </si>
+  <si>
+    <t>Fix HTML and CSS patterns</t>
   </si>
 </sst>
 </file>
@@ -675,7 +684,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="155">
+  <cellXfs count="158">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1137,6 +1146,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="14" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1589,10 +1607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF93"/>
+  <dimension ref="A1:AF94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H80" sqref="H80"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
@@ -3954,7 +3972,7 @@
       <c r="P59" s="100"/>
       <c r="Q59" s="100"/>
       <c r="R59" s="100">
-        <f t="shared" ref="R59:R77" si="4">SUM(M59:Q59)</f>
+        <f t="shared" ref="R59:R76" si="4">SUM(M59:Q59)</f>
         <v>0</v>
       </c>
     </row>
@@ -4372,8 +4390,8 @@
       <c r="E70" s="98"/>
       <c r="F70" s="93"/>
       <c r="G70" s="99">
-        <f>SUM(F71:F75)</f>
-        <v>21</v>
+        <f>SUM(F71:F74)</f>
+        <v>18</v>
       </c>
       <c r="H70" s="93"/>
       <c r="I70" s="99"/>
@@ -4396,17 +4414,17 @@
       <c r="AE70" s="2"/>
       <c r="AF70" s="2"/>
     </row>
-    <row r="71" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:32" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A71" s="116"/>
       <c r="B71" s="82"/>
       <c r="C71" s="81" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D71" s="75" t="s">
         <v>45</v>
       </c>
       <c r="E71" s="127" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F71" s="126">
         <v>7</v>
@@ -4440,7 +4458,7 @@
       <c r="A72" s="66"/>
       <c r="B72" s="82"/>
       <c r="C72" s="81" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="D72" s="75" t="s">
         <v>45</v>
@@ -4453,7 +4471,7 @@
       </c>
       <c r="G72" s="78"/>
       <c r="H72" s="126">
-        <f>SUM(L78:L78)</f>
+        <f>SUM(L79:L79)</f>
         <v>0</v>
       </c>
       <c r="I72" s="78"/>
@@ -4480,13 +4498,13 @@
       <c r="A73" s="66"/>
       <c r="B73" s="82"/>
       <c r="C73" s="81" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="D73" s="75" t="s">
         <v>38</v>
       </c>
       <c r="E73" s="127" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F73" s="126">
         <v>2</v>
@@ -4512,28 +4530,31 @@
     </row>
     <row r="74" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A74" s="66"/>
-      <c r="B74" s="82"/>
-      <c r="C74" s="81" t="s">
-        <v>52</v>
-      </c>
-      <c r="D74" s="75" t="s">
-        <v>38</v>
-      </c>
-      <c r="E74" s="127" t="s">
+      <c r="B74" s="83"/>
+      <c r="C74" s="128" t="s">
+        <v>89</v>
+      </c>
+      <c r="D74" s="85" t="s">
+        <v>45</v>
+      </c>
+      <c r="E74" s="129" t="s">
         <v>69</v>
       </c>
-      <c r="F74" s="126">
-        <v>3</v>
-      </c>
-      <c r="G74" s="78"/>
-      <c r="H74" s="126"/>
-      <c r="I74" s="78"/>
+      <c r="F74" s="130">
+        <v>4</v>
+      </c>
+      <c r="G74" s="88"/>
+      <c r="H74" s="130"/>
+      <c r="I74" s="88"/>
       <c r="M74" s="94"/>
       <c r="N74" s="94"/>
       <c r="O74" s="94"/>
       <c r="P74" s="94"/>
       <c r="Q74" s="94"/>
-      <c r="R74" s="94"/>
+      <c r="R74" s="94">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="X74" s="2"/>
       <c r="Y74" s="2"/>
       <c r="Z74" s="2"/>
@@ -4546,28 +4567,27 @@
     </row>
     <row r="75" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A75" s="66"/>
-      <c r="B75" s="83"/>
-      <c r="C75" s="128" t="s">
-        <v>50</v>
-      </c>
-      <c r="D75" s="85" t="s">
-        <v>45</v>
-      </c>
-      <c r="E75" s="129" t="s">
-        <v>69</v>
-      </c>
-      <c r="F75" s="130">
-        <v>4</v>
-      </c>
-      <c r="G75" s="88"/>
-      <c r="H75" s="130"/>
-      <c r="I75" s="88"/>
-      <c r="M75" s="94"/>
-      <c r="N75" s="94"/>
-      <c r="O75" s="94"/>
-      <c r="P75" s="94"/>
-      <c r="Q75" s="94"/>
-      <c r="R75" s="94">
+      <c r="B75" s="132" t="s">
+        <v>51</v>
+      </c>
+      <c r="C75" s="133"/>
+      <c r="D75" s="134"/>
+      <c r="E75" s="135"/>
+      <c r="F75" s="136"/>
+      <c r="G75" s="137">
+        <v>15</v>
+      </c>
+      <c r="H75" s="136"/>
+      <c r="I75" s="137">
+        <f>SUM(H76:H76)</f>
+        <v>0</v>
+      </c>
+      <c r="M75" s="100"/>
+      <c r="N75" s="100"/>
+      <c r="O75" s="100"/>
+      <c r="P75" s="100"/>
+      <c r="Q75" s="100"/>
+      <c r="R75" s="100">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4581,30 +4601,32 @@
       <c r="AE75" s="2"/>
       <c r="AF75" s="2"/>
     </row>
-    <row r="76" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:32" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A76" s="66"/>
-      <c r="B76" s="132" t="s">
-        <v>51</v>
-      </c>
-      <c r="C76" s="133"/>
-      <c r="D76" s="134"/>
-      <c r="E76" s="135"/>
-      <c r="F76" s="136"/>
-      <c r="G76" s="137">
-        <f>SUM(F77:F77)</f>
+      <c r="B76" s="143"/>
+      <c r="C76" s="81" t="s">
+        <v>53</v>
+      </c>
+      <c r="D76" s="75" t="s">
+        <v>54</v>
+      </c>
+      <c r="E76" s="127" t="s">
+        <v>70</v>
+      </c>
+      <c r="F76" s="77">
         <v>4</v>
       </c>
-      <c r="H76" s="136"/>
-      <c r="I76" s="137">
-        <f>SUM(H77:H77)</f>
+      <c r="G76" s="144"/>
+      <c r="H76" s="77">
         <v>0</v>
       </c>
-      <c r="M76" s="100"/>
-      <c r="N76" s="100"/>
-      <c r="O76" s="100"/>
-      <c r="P76" s="100"/>
-      <c r="Q76" s="100"/>
-      <c r="R76" s="100">
+      <c r="I76" s="78"/>
+      <c r="M76" s="94"/>
+      <c r="N76" s="94"/>
+      <c r="O76" s="94"/>
+      <c r="P76" s="94"/>
+      <c r="Q76" s="94"/>
+      <c r="R76" s="94">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4619,34 +4641,29 @@
       <c r="AF76" s="2"/>
     </row>
     <row r="77" spans="1:32" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A77" s="66"/>
-      <c r="B77" s="143"/>
+      <c r="A77" s="155"/>
+      <c r="B77" s="81"/>
       <c r="C77" s="81" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="D77" s="75" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="E77" s="127" t="s">
-        <v>70</v>
-      </c>
-      <c r="F77" s="77">
-        <v>4</v>
-      </c>
-      <c r="G77" s="144"/>
-      <c r="H77" s="77">
-        <v>0</v>
-      </c>
-      <c r="I77" s="78"/>
-      <c r="M77" s="94"/>
-      <c r="N77" s="94"/>
-      <c r="O77" s="94"/>
-      <c r="P77" s="94"/>
-      <c r="Q77" s="94"/>
-      <c r="R77" s="94">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="F77" s="75">
+        <v>5</v>
+      </c>
+      <c r="G77" s="156"/>
+      <c r="H77" s="75"/>
+      <c r="I77" s="157"/>
+      <c r="M77" s="80"/>
+      <c r="N77" s="80"/>
+      <c r="O77" s="80"/>
+      <c r="P77" s="80"/>
+      <c r="Q77" s="80"/>
+      <c r="R77" s="80"/>
       <c r="X77" s="2"/>
       <c r="Y77" s="2"/>
       <c r="Z77" s="2"/>
@@ -4658,100 +4675,104 @@
       <c r="AF77" s="2"/>
     </row>
     <row r="78" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A78" s="147" t="s">
+      <c r="A78" s="155"/>
+      <c r="B78" s="81"/>
+      <c r="C78" s="81" t="s">
+        <v>52</v>
+      </c>
+      <c r="D78" s="75" t="s">
+        <v>38</v>
+      </c>
+      <c r="E78" s="127" t="s">
+        <v>69</v>
+      </c>
+      <c r="F78" s="75">
         <v>6</v>
       </c>
-      <c r="B78" s="147"/>
-      <c r="C78" s="148"/>
-      <c r="D78" s="148"/>
-      <c r="E78" s="149"/>
-      <c r="F78" s="150">
+      <c r="G78" s="156"/>
+      <c r="H78" s="75"/>
+      <c r="I78" s="157"/>
+      <c r="M78" s="80"/>
+      <c r="N78" s="80"/>
+      <c r="O78" s="80"/>
+      <c r="P78" s="80"/>
+      <c r="Q78" s="80"/>
+      <c r="R78" s="80"/>
+      <c r="X78" s="2"/>
+      <c r="Y78" s="2"/>
+      <c r="Z78" s="2"/>
+      <c r="AA78" s="2"/>
+      <c r="AB78" s="2"/>
+      <c r="AC78" s="2"/>
+      <c r="AD78" s="2"/>
+      <c r="AE78" s="2"/>
+      <c r="AF78" s="2"/>
+    </row>
+    <row r="79" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A79" s="147" t="s">
+        <v>6</v>
+      </c>
+      <c r="B79" s="147"/>
+      <c r="C79" s="148"/>
+      <c r="D79" s="148"/>
+      <c r="E79" s="149"/>
+      <c r="F79" s="150">
         <f>SUM(F5:F77)</f>
-        <v>219</v>
-      </c>
-      <c r="G78" s="151">
-        <f>SUM(G5:G77)</f>
-        <v>219</v>
-      </c>
-      <c r="H78" s="153">
-        <f>SUM(M78:Q78)</f>
+        <v>221</v>
+      </c>
+      <c r="G79" s="151">
+        <f>SUM(G5:G76)</f>
+        <v>227</v>
+      </c>
+      <c r="H79" s="153">
+        <f>SUM(M79:Q79)</f>
         <v>191.6</v>
       </c>
-      <c r="I78" s="151">
-        <f>SUM(I5:I77)</f>
+      <c r="I79" s="151">
+        <f>SUM(I5:I76)</f>
         <v>191.6</v>
       </c>
-      <c r="J78" s="152"/>
-      <c r="K78" s="152"/>
-      <c r="L78" s="152"/>
-      <c r="M78" s="153">
-        <f>SUM(M5:M77)</f>
+      <c r="J79" s="152"/>
+      <c r="K79" s="152"/>
+      <c r="L79" s="152"/>
+      <c r="M79" s="153">
+        <f>SUM(M5:M76)</f>
         <v>34.549999999999997</v>
       </c>
-      <c r="N78" s="153">
-        <f>SUM(N5:N77)</f>
+      <c r="N79" s="153">
+        <f>SUM(N5:N76)</f>
         <v>42.5</v>
       </c>
-      <c r="O78" s="154">
-        <f>SUM(O5:O77)</f>
+      <c r="O79" s="154">
+        <f>SUM(O5:O76)</f>
         <v>19.55</v>
       </c>
-      <c r="P78" s="153">
-        <f>SUM(P5:P77)</f>
+      <c r="P79" s="153">
+        <f>SUM(P5:P76)</f>
         <v>34.75</v>
       </c>
-      <c r="Q78" s="153">
-        <f>SUM(Q5:Q77)</f>
+      <c r="Q79" s="153">
+        <f>SUM(Q5:Q76)</f>
         <v>60.25</v>
       </c>
-      <c r="R78" s="153">
-        <f>SUM(M78:Q78)</f>
+      <c r="R79" s="153">
+        <f>SUM(M79:Q79)</f>
         <v>191.6</v>
       </c>
-      <c r="S78" s="152"/>
-      <c r="T78" s="152"/>
-      <c r="U78" s="152"/>
-      <c r="V78" s="152"/>
-      <c r="W78" s="152"/>
-      <c r="X78" s="152"/>
-      <c r="Y78" s="152"/>
-      <c r="Z78" s="152"/>
-      <c r="AA78" s="152"/>
-      <c r="AB78" s="152"/>
-      <c r="AC78" s="152"/>
-      <c r="AD78" s="152"/>
-      <c r="AE78" s="152"/>
-      <c r="AF78" s="152"/>
-    </row>
-    <row r="79" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A79" s="4"/>
-      <c r="B79" s="4"/>
-      <c r="C79" s="7"/>
-      <c r="D79" s="7"/>
-      <c r="E79" s="7"/>
-      <c r="F79" s="7"/>
-      <c r="G79" s="7"/>
-      <c r="H79" s="4"/>
-      <c r="M79" s="4"/>
-      <c r="N79" s="4"/>
-      <c r="O79" s="4"/>
-      <c r="P79" s="4"/>
-      <c r="Q79" s="2"/>
-      <c r="R79" s="2"/>
-      <c r="S79" s="2"/>
-      <c r="T79" s="2"/>
-      <c r="U79" s="2"/>
-      <c r="V79" s="2"/>
-      <c r="W79" s="2"/>
-      <c r="X79" s="2"/>
-      <c r="Y79" s="2"/>
-      <c r="Z79" s="2"/>
-      <c r="AA79" s="2"/>
-      <c r="AB79" s="2"/>
-      <c r="AC79" s="2"/>
-      <c r="AD79" s="2"/>
-      <c r="AE79" s="2"/>
-      <c r="AF79" s="2"/>
+      <c r="S79" s="152"/>
+      <c r="T79" s="152"/>
+      <c r="U79" s="152"/>
+      <c r="V79" s="152"/>
+      <c r="W79" s="152"/>
+      <c r="X79" s="152"/>
+      <c r="Y79" s="152"/>
+      <c r="Z79" s="152"/>
+      <c r="AA79" s="152"/>
+      <c r="AB79" s="152"/>
+      <c r="AC79" s="152"/>
+      <c r="AD79" s="152"/>
+      <c r="AE79" s="152"/>
+      <c r="AF79" s="152"/>
     </row>
     <row r="80" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A80" s="4"/>
@@ -4816,17 +4837,17 @@
     <row r="82" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
-      <c r="C82" s="4"/>
+      <c r="C82" s="7"/>
       <c r="D82" s="7"/>
       <c r="E82" s="7"/>
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
-      <c r="H82" s="7"/>
+      <c r="H82" s="4"/>
       <c r="M82" s="4"/>
       <c r="N82" s="4"/>
       <c r="O82" s="4"/>
       <c r="P82" s="4"/>
-      <c r="Q82" s="4"/>
+      <c r="Q82" s="2"/>
       <c r="R82" s="2"/>
       <c r="S82" s="2"/>
       <c r="T82" s="2"/>
@@ -4857,6 +4878,12 @@
       <c r="O83" s="4"/>
       <c r="P83" s="4"/>
       <c r="Q83" s="4"/>
+      <c r="R83" s="2"/>
+      <c r="S83" s="2"/>
+      <c r="T83" s="2"/>
+      <c r="U83" s="2"/>
+      <c r="V83" s="2"/>
+      <c r="W83" s="2"/>
       <c r="X83" s="2"/>
       <c r="Y83" s="2"/>
       <c r="Z83" s="2"/>
@@ -4972,6 +4999,11 @@
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
       <c r="H88" s="7"/>
+      <c r="M88" s="4"/>
+      <c r="N88" s="4"/>
+      <c r="O88" s="4"/>
+      <c r="P88" s="4"/>
+      <c r="Q88" s="4"/>
       <c r="X88" s="2"/>
       <c r="Y88" s="2"/>
       <c r="Z88" s="2"/>
@@ -4984,6 +5016,13 @@
     </row>
     <row r="89" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A89" s="4"/>
+      <c r="B89" s="4"/>
+      <c r="C89" s="4"/>
+      <c r="D89" s="7"/>
+      <c r="E89" s="7"/>
+      <c r="F89" s="7"/>
+      <c r="G89" s="7"/>
+      <c r="H89" s="7"/>
       <c r="X89" s="2"/>
       <c r="Y89" s="2"/>
       <c r="Z89" s="2"/>
@@ -5042,9 +5081,21 @@
       <c r="AE93" s="2"/>
       <c r="AF93" s="2"/>
     </row>
+    <row r="94" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A94" s="4"/>
+      <c r="X94" s="2"/>
+      <c r="Y94" s="2"/>
+      <c r="Z94" s="2"/>
+      <c r="AA94" s="2"/>
+      <c r="AB94" s="2"/>
+      <c r="AC94" s="2"/>
+      <c r="AD94" s="2"/>
+      <c r="AE94" s="2"/>
+      <c r="AF94" s="2"/>
+    </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <conditionalFormatting sqref="I5:I77 M5:R77">
+  <conditionalFormatting sqref="I5:I78 M5:R78">
     <cfRule type="cellIs" dxfId="0" priority="6" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
